--- a/Carbon_Footprint_Report.xlsx
+++ b/Carbon_Footprint_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="102">
   <si>
     <t>活動數據</t>
   </si>
@@ -68,69 +68,123 @@
     <t/>
   </si>
   <si>
-    <t>蔗糖</t>
+    <t>精鹽（食用鹽）</t>
+  </si>
+  <si>
+    <t>環境部,2021</t>
+  </si>
+  <si>
+    <t>蔭豆豉</t>
+  </si>
+  <si>
+    <t>衛生福利部食品藥物管理署,2019</t>
+  </si>
+  <si>
+    <t>填入</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>環境部</t>
+  </si>
+  <si>
+    <t>鮮蛋</t>
+  </si>
+  <si>
+    <t>顆</t>
+  </si>
+  <si>
+    <t>石安牧場,2019</t>
+  </si>
+  <si>
+    <t>芝麻醬</t>
+  </si>
+  <si>
+    <t>社團法人臺灣環境管理協會,2019</t>
+  </si>
+  <si>
+    <t>瑪琪琳</t>
+  </si>
+  <si>
+    <t>豬肉</t>
+  </si>
+  <si>
+    <t>祥圃實業股份有限公司,2017</t>
+  </si>
+  <si>
+    <t>道林紙</t>
+  </si>
+  <si>
+    <t>環境部,2018</t>
+  </si>
+  <si>
+    <t>製造生產階段</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>電力碳足跡(2014)</t>
+  </si>
+  <si>
+    <t>度(kwh)</t>
   </si>
   <si>
     <t>環境部,2016</t>
   </si>
   <si>
-    <t>精緻牛油</t>
-  </si>
-  <si>
-    <t>衛生福利部食品藥物管理署、統清股份有限公司台南廠,2018</t>
-  </si>
-  <si>
-    <t>鮮蛋</t>
-  </si>
-  <si>
-    <t>顆</t>
-  </si>
-  <si>
-    <t>石安牧場,2015</t>
-  </si>
-  <si>
-    <t>製造生產階段</t>
-  </si>
-  <si>
-    <t>能源</t>
-  </si>
-  <si>
-    <t>電力碳足跡(2014)</t>
-  </si>
-  <si>
-    <t>度(kwh)</t>
+    <t>天然氣(於固定源使用，2013)</t>
+  </si>
+  <si>
+    <t>立方公尺(m3)</t>
+  </si>
+  <si>
+    <t>環境部,2015</t>
+  </si>
+  <si>
+    <t>柴油(於固定源使用，2013)</t>
+  </si>
+  <si>
+    <t>公升(L)</t>
   </si>
   <si>
     <t>配銷階段</t>
   </si>
   <si>
-    <t>柴油(於公路運輸移動源使用，2014)</t>
-  </si>
-  <si>
-    <t>公升(L)</t>
-  </si>
-  <si>
-    <t>伸縮膜(LLDPE)</t>
-  </si>
-  <si>
-    <t>環境部,2023</t>
-  </si>
-  <si>
-    <t>標籤紙(PET)</t>
-  </si>
-  <si>
-    <t>張</t>
-  </si>
-  <si>
-    <t>瓦楞紙板(B楞)</t>
+    <t>車用汽油(於移動源使用，2013)</t>
+  </si>
+  <si>
+    <t>柴油(於公路運輸移動源使用，2013)</t>
+  </si>
+  <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>台灣自來水(2011)</t>
+  </si>
+  <si>
+    <t>台灣自來水公司,2013</t>
+  </si>
+  <si>
+    <t>廢棄處理階段</t>
+  </si>
+  <si>
+    <t>殘留物</t>
+  </si>
+  <si>
+    <t>瓦楞芯紙(原紙)</t>
+  </si>
+  <si>
+    <t>公噸(mt)</t>
+  </si>
+  <si>
+    <t>經濟部工業局「103年製造業產品碳足跡輔導與推廣計畫」,2015</t>
   </si>
   <si>
     <t>毫米(mm)</t>
   </si>
   <si>
-    <t>資源</t>
-  </si>
-  <si>
     <t>公分(cm)</t>
   </si>
   <si>
@@ -146,9 +200,6 @@
     <t>公里(km)</t>
   </si>
   <si>
-    <t>廢棄處理階段</t>
-  </si>
-  <si>
     <t>產品</t>
   </si>
   <si>
@@ -170,18 +221,12 @@
     <t>碼(yard)</t>
   </si>
   <si>
-    <t>殘留物</t>
-  </si>
-  <si>
     <t>毫克(mg)</t>
   </si>
   <si>
     <t>公克(g)</t>
   </si>
   <si>
-    <t>公噸(mt)</t>
-  </si>
-  <si>
     <t>英磅(lb)</t>
   </si>
   <si>
@@ -207,9 +252,6 @@
   </si>
   <si>
     <t>立方公分(cm3)</t>
-  </si>
-  <si>
-    <t>立方公尺(m3)</t>
   </si>
   <si>
     <t>立方公里(km3)</t>
@@ -652,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -722,13 +764,13 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>30000</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -760,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>24000</v>
+        <v>0.006</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -775,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>0.37</v>
+        <v>0.0688</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -798,13 +840,13 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>27000</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -813,7 +855,7 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>0.694</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -836,13 +878,13 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>15000</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -850,11 +892,11 @@
       <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="I6">
-        <v>0.28</v>
+      <c r="I6" t="s">
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -865,37 +907,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7">
+        <v>0.015</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0.005</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>0.105</v>
+      </c>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7">
-        <v>93360</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7">
-        <v>0.65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -903,37 +945,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0.012</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0.004</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>1.96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>200000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>3.48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -947,31 +989,31 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>50000</v>
+        <v>0.024</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.008</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>3.69</v>
+        <v>3.07</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -985,31 +1027,31 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>50000</v>
+        <v>0.015</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.005</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10">
-        <v>0.0135</v>
+        <v>36.9</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1023,33 +1065,299 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>0.0045</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>0.0015</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>1.46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D11">
-        <v>50000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>0.2799</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>0.0933</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>0.65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="I11">
-        <v>0.813</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>60000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>2.59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>24000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>3.46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>24000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>3.12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>0.3498</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>0.01166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>3.49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>0.00126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>0.00042</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>0.167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>0.0000045</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>0.0000015</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18">
+        <v>0.72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1060,34 +1368,34 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" sqref="A10:A11">
+    <dataValidation type="list" allowBlank="1" sqref="A10:A18">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A3:A11">
+    <dataValidation type="list" allowBlank="1" sqref="A3:A18">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B10:B11">
+    <dataValidation type="list" allowBlank="1" sqref="B10:B18">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B11">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B18">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E10:E11">
+    <dataValidation type="list" allowBlank="1" sqref="E10:E18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E11">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G10:G11">
+    <dataValidation type="list" allowBlank="1" sqref="G10:G18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G11">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J10:J11">
+    <dataValidation type="list" allowBlank="1" sqref="J10:J18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J3:J11">
+    <dataValidation type="list" allowBlank="1" sqref="J3:J18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
   </dataValidations>
@@ -1106,115 +1414,115 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
@@ -1222,24 +1530,24 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
@@ -1255,398 +1563,398 @@
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J44" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Carbon_Footprint_Report.xlsx
+++ b/Carbon_Footprint_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
   <si>
     <t>活動數據</t>
   </si>
@@ -68,10 +68,10 @@
     <t/>
   </si>
   <si>
-    <t>精鹽（食用鹽）</t>
-  </si>
-  <si>
-    <t>環境部,2021</t>
+    <t>糖蜜</t>
+  </si>
+  <si>
+    <t>環境部,2016</t>
   </si>
   <si>
     <t>蔭豆豉</t>
@@ -80,13 +80,13 @@
     <t>衛生福利部食品藥物管理署,2019</t>
   </si>
   <si>
-    <t>填入</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>環境部</t>
+    <t>g手動輸入名稱</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>手動輸入測試</t>
   </si>
   <si>
     <t>鮮蛋</t>
@@ -95,7 +95,7 @@
     <t>顆</t>
   </si>
   <si>
-    <t>石安牧場,2019</t>
+    <t>石安牧場,2015</t>
   </si>
   <si>
     <t>芝麻醬</t>
@@ -125,46 +125,40 @@
     <t>能源</t>
   </si>
   <si>
-    <t>電力碳足跡(2014)</t>
+    <t>電力碳足跡(2021)</t>
   </si>
   <si>
     <t>度(kwh)</t>
   </si>
   <si>
-    <t>環境部,2016</t>
-  </si>
-  <si>
-    <t>天然氣(於固定源使用，2013)</t>
+    <t>環境部,2023</t>
+  </si>
+  <si>
+    <t>天然氣(於固定源使用，2021)</t>
   </si>
   <si>
     <t>立方公尺(m3)</t>
   </si>
   <si>
-    <t>環境部,2015</t>
-  </si>
-  <si>
-    <t>柴油(於固定源使用，2013)</t>
+    <t>柴油(於固定源使用，2021)</t>
   </si>
   <si>
     <t>公升(L)</t>
   </si>
   <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>臺灣自來水(2020)</t>
+  </si>
+  <si>
+    <t>環境部,2022</t>
+  </si>
+  <si>
     <t>配銷階段</t>
   </si>
   <si>
-    <t>車用汽油(於移動源使用，2013)</t>
-  </si>
-  <si>
-    <t>柴油(於公路運輸移動源使用，2013)</t>
-  </si>
-  <si>
-    <t>資源</t>
-  </si>
-  <si>
-    <t>台灣自來水(2011)</t>
-  </si>
-  <si>
-    <t>台灣自來水公司,2013</t>
+    <t>柴油(於公路運輸移動源使用，2021)</t>
   </si>
   <si>
     <t>廢棄處理階段</t>
@@ -173,13 +167,13 @@
     <t>殘留物</t>
   </si>
   <si>
-    <t>瓦楞芯紙(原紙)</t>
+    <t>廢棄物焚化處理服務(岡山垃圾焚化廠)</t>
   </si>
   <si>
     <t>公噸(mt)</t>
   </si>
   <si>
-    <t>經濟部工業局「103年製造業產品碳足跡輔導與推廣計畫」,2015</t>
+    <t>環境部,2020</t>
   </si>
   <si>
     <t>毫米(mm)</t>
@@ -694,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -764,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>0.6</v>
+        <v>60000</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -802,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>0.006</v>
+        <v>6000</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -817,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>0.0688</v>
+        <v>0.32</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -840,7 +834,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>60000</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -878,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>60000</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -916,7 +910,7 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>0.015</v>
+        <v>15000</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -931,7 +925,7 @@
         <v>25</v>
       </c>
       <c r="I7">
-        <v>0.105</v>
+        <v>0.28</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
@@ -954,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>0.012</v>
+        <v>12000</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -992,7 +986,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>0.024</v>
+        <v>24000</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1030,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.015</v>
+        <v>15000</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1068,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.0045</v>
+        <v>4500</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1106,7 +1100,7 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>0.2799</v>
+        <v>280000</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -1121,7 +1115,7 @@
         <v>37</v>
       </c>
       <c r="I12">
-        <v>0.65</v>
+        <v>0.606</v>
       </c>
       <c r="J12" t="s">
         <v>38</v>
@@ -1144,13 +1138,13 @@
         <v>40</v>
       </c>
       <c r="D13">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>0.0067</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -1159,13 +1153,13 @@
         <v>40</v>
       </c>
       <c r="I13">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1179,31 +1173,31 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>8000</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="D14">
-        <v>24000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
       <c r="F14">
-        <v>8</v>
+        <v>0.0027</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>3.29</v>
+      </c>
+      <c r="J14" t="s">
         <v>43</v>
       </c>
-      <c r="I14">
-        <v>3.46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1211,37 +1205,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>1260</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>0.00042</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <v>0.233</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
         <v>46</v>
-      </c>
-      <c r="D15">
-        <v>24000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15">
-        <v>3.12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>42</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1249,37 +1243,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>0.3498</v>
+        <v>349800</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>0.01166</v>
+        <v>0.1166</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1287,77 +1281,39 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>0.00126</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>0.00042</v>
+        <v>0.0000015</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17">
-        <v>0.167</v>
+        <v>360000</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>0.0000045</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18">
-        <v>0.0000015</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18">
-        <v>0.72</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1368,34 +1324,34 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" sqref="A10:A18">
+    <dataValidation type="list" allowBlank="1" sqref="A10:A17">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A3:A18">
+    <dataValidation type="list" allowBlank="1" sqref="A3:A17">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B10:B18">
+    <dataValidation type="list" allowBlank="1" sqref="B10:B17">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B18">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B17">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E10:E18">
+    <dataValidation type="list" allowBlank="1" sqref="E10:E17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E18">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G10:G18">
+    <dataValidation type="list" allowBlank="1" sqref="G10:G17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G18">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J10:J18">
+    <dataValidation type="list" allowBlank="1" sqref="J10:J17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J3:J18">
+    <dataValidation type="list" allowBlank="1" sqref="J3:J17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
   </dataValidations>
@@ -1417,13 +1373,13 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1431,123 +1387,123 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
@@ -1563,123 +1519,123 @@
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
@@ -1695,24 +1651,24 @@
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
@@ -1728,112 +1684,112 @@
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
@@ -1849,112 +1805,112 @@
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Carbon_Footprint_Report.xlsx
+++ b/Carbon_Footprint_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="93">
   <si>
     <t>活動數據</t>
   </si>
@@ -62,40 +62,28 @@
     <t>公斤(kg)</t>
   </si>
   <si>
-    <t>衛生福利部食品藥物管理署,2016</t>
+    <t>衛生福利部食品藥物管理署,2015</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>糖蜜</t>
-  </si>
-  <si>
-    <t>環境部,2016</t>
-  </si>
-  <si>
-    <t>蔭豆豉</t>
-  </si>
-  <si>
-    <t>衛生福利部食品藥物管理署,2019</t>
-  </si>
-  <si>
-    <t>g手動輸入名稱</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>手動輸入測試</t>
-  </si>
-  <si>
-    <t>鮮蛋</t>
+    <t>精製特砂(50公斤)</t>
+  </si>
+  <si>
+    <t>台灣糖業股份有限公司小港廠,2022</t>
+  </si>
+  <si>
+    <t>ej/</t>
+  </si>
+  <si>
+    <t>紅殼雞蛋</t>
   </si>
   <si>
     <t>顆</t>
   </si>
   <si>
-    <t>石安牧場,2015</t>
+    <t>麗園農牧科技股份有限公司,2017</t>
   </si>
   <si>
     <t>芝麻醬</t>
@@ -104,7 +92,10 @@
     <t>社團法人臺灣環境管理協會,2019</t>
   </si>
   <si>
-    <t>瑪琪琳</t>
+    <t>精製牛油</t>
+  </si>
+  <si>
+    <t>衛生福利部食品藥物管理署、統清股份有限公司台南廠,2018</t>
   </si>
   <si>
     <t>豬肉</t>
@@ -113,10 +104,10 @@
     <t>祥圃實業股份有限公司,2017</t>
   </si>
   <si>
-    <t>道林紙</t>
-  </si>
-  <si>
-    <t>環境部,2018</t>
+    <t>牛皮紙</t>
+  </si>
+  <si>
+    <t>環境部,2023</t>
   </si>
   <si>
     <t>製造生產階段</t>
@@ -131,9 +122,6 @@
     <t>度(kwh)</t>
   </si>
   <si>
-    <t>環境部,2023</t>
-  </si>
-  <si>
     <t>天然氣(於固定源使用，2021)</t>
   </si>
   <si>
@@ -146,79 +134,70 @@
     <t>公升(L)</t>
   </si>
   <si>
+    <t>配銷階段</t>
+  </si>
+  <si>
+    <t>車用汽油(於移動源使用，2021)</t>
+  </si>
+  <si>
+    <t>柴油(於公路運輸移動源使用，2021)</t>
+  </si>
+  <si>
+    <t>毫米(mm)</t>
+  </si>
+  <si>
     <t>資源</t>
   </si>
   <si>
-    <t>臺灣自來水(2020)</t>
-  </si>
-  <si>
-    <t>環境部,2022</t>
-  </si>
-  <si>
-    <t>配銷階段</t>
-  </si>
-  <si>
-    <t>柴油(於公路運輸移動源使用，2021)</t>
+    <t>公分(cm)</t>
+  </si>
+  <si>
+    <t>公尺(m)</t>
+  </si>
+  <si>
+    <t>使用階段</t>
+  </si>
+  <si>
+    <t>輔助項</t>
+  </si>
+  <si>
+    <t>公里(km)</t>
   </si>
   <si>
     <t>廢棄處理階段</t>
   </si>
   <si>
+    <t>產品</t>
+  </si>
+  <si>
+    <t>海浬(nm)</t>
+  </si>
+  <si>
+    <t>服務階段</t>
+  </si>
+  <si>
+    <t>聯產品</t>
+  </si>
+  <si>
+    <t>英寸(in)</t>
+  </si>
+  <si>
+    <t>排放</t>
+  </si>
+  <si>
+    <t>碼(yard)</t>
+  </si>
+  <si>
     <t>殘留物</t>
   </si>
   <si>
-    <t>廢棄物焚化處理服務(岡山垃圾焚化廠)</t>
+    <t>毫克(mg)</t>
+  </si>
+  <si>
+    <t>公克(g)</t>
   </si>
   <si>
     <t>公噸(mt)</t>
-  </si>
-  <si>
-    <t>環境部,2020</t>
-  </si>
-  <si>
-    <t>毫米(mm)</t>
-  </si>
-  <si>
-    <t>公分(cm)</t>
-  </si>
-  <si>
-    <t>公尺(m)</t>
-  </si>
-  <si>
-    <t>使用階段</t>
-  </si>
-  <si>
-    <t>輔助項</t>
-  </si>
-  <si>
-    <t>公里(km)</t>
-  </si>
-  <si>
-    <t>產品</t>
-  </si>
-  <si>
-    <t>海浬(nm)</t>
-  </si>
-  <si>
-    <t>服務階段</t>
-  </si>
-  <si>
-    <t>聯產品</t>
-  </si>
-  <si>
-    <t>英寸(in)</t>
-  </si>
-  <si>
-    <t>排放</t>
-  </si>
-  <si>
-    <t>碼(yard)</t>
-  </si>
-  <si>
-    <t>毫克(mg)</t>
-  </si>
-  <si>
-    <t>公克(g)</t>
   </si>
   <si>
     <t>英磅(lb)</t>
@@ -688,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>0.32</v>
+        <v>57.7</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -831,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>60000</v>
@@ -846,16 +825,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>1.57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -869,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -884,16 +854,10 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -907,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>15000</v>
@@ -922,16 +886,16 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>0.28</v>
+        <v>0.107</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -945,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>12000</v>
@@ -960,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <v>1.96</v>
@@ -969,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -983,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>24000</v>
@@ -998,16 +962,16 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>3.07</v>
+        <v>0.694</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -1021,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>15000</v>
@@ -1036,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10">
         <v>36.9</v>
@@ -1045,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1059,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>4500</v>
@@ -1074,16 +1038,16 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1091,37 +1055,37 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>280000</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>0.0933</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>0.606</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1129,37 +1093,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
       <c r="D13">
         <v>20000</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>0.0067</v>
+        <v>6.66666667</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>2.63</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1167,37 +1131,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>8000</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>0.0027</v>
+        <v>2.66666667</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>3.29</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1205,37 +1169,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>1260</v>
+        <v>8000</v>
       </c>
       <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>2.66666667</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="F15">
-        <v>0.00042</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
       <c r="I15">
-        <v>0.233</v>
+        <v>2.92</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1243,77 +1207,39 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>349800</v>
+        <v>250000</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.1166</v>
+        <v>0.01166</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I16">
         <v>3.32</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>4.5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>0.0000015</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17">
-        <v>360000</v>
-      </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1324,34 +1250,34 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" sqref="A10:A17">
+    <dataValidation type="list" allowBlank="1" sqref="A10:A16">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A3:A17">
+    <dataValidation type="list" allowBlank="1" sqref="A3:A16">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B10:B17">
+    <dataValidation type="list" allowBlank="1" sqref="B10:B16">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B17">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B16">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E10:E17">
+    <dataValidation type="list" allowBlank="1" sqref="E10:E16">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E17">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E16">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G10:G17">
+    <dataValidation type="list" allowBlank="1" sqref="G10:G16">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G17">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G16">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J10:J17">
+    <dataValidation type="list" allowBlank="1" sqref="J10:J16">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J3:J17">
+    <dataValidation type="list" allowBlank="1" sqref="J3:J16">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
   </dataValidations>
@@ -1370,140 +1296,140 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
@@ -1519,398 +1445,398 @@
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Carbon_Footprint_Report.xlsx
+++ b/Carbon_Footprint_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="79">
   <si>
     <t>活動數據</t>
   </si>
@@ -56,211 +56,169 @@
     <t>原物料</t>
   </si>
   <si>
-    <t>麵粉</t>
-  </si>
-  <si>
     <t>公斤(kg)</t>
   </si>
   <si>
-    <t>衛生福利部食品藥物管理署,2015</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>精製特砂(50公斤)</t>
-  </si>
-  <si>
-    <t>台灣糖業股份有限公司小港廠,2022</t>
-  </si>
-  <si>
-    <t>ej/</t>
-  </si>
-  <si>
-    <t>紅殼雞蛋</t>
+    <t>製造生產階段</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>電力碳足跡(2021)</t>
+  </si>
+  <si>
+    <t>度(kwh)</t>
+  </si>
+  <si>
+    <t>環境部</t>
+  </si>
+  <si>
+    <t>天然氣(於固定源使用，2021)</t>
+  </si>
+  <si>
+    <t>立方公尺(m3)</t>
+  </si>
+  <si>
+    <t>柴油(於固定源使用，2021)</t>
+  </si>
+  <si>
+    <t>公升(L)</t>
+  </si>
+  <si>
+    <t>配銷階段</t>
+  </si>
+  <si>
+    <t>柴油(於公路運輸移動源使用，2021)</t>
+  </si>
+  <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>臺灣自來水(2020)</t>
+  </si>
+  <si>
+    <t>毫米(mm)</t>
+  </si>
+  <si>
+    <t>公分(cm)</t>
+  </si>
+  <si>
+    <t>公尺(m)</t>
+  </si>
+  <si>
+    <t>使用階段</t>
+  </si>
+  <si>
+    <t>輔助項</t>
+  </si>
+  <si>
+    <t>公里(km)</t>
+  </si>
+  <si>
+    <t>廢棄處理階段</t>
+  </si>
+  <si>
+    <t>產品</t>
+  </si>
+  <si>
+    <t>海浬(nm)</t>
+  </si>
+  <si>
+    <t>服務階段</t>
+  </si>
+  <si>
+    <t>聯產品</t>
+  </si>
+  <si>
+    <t>英寸(in)</t>
+  </si>
+  <si>
+    <t>排放</t>
+  </si>
+  <si>
+    <t>碼(yard)</t>
+  </si>
+  <si>
+    <t>殘留物</t>
+  </si>
+  <si>
+    <t>毫克(mg)</t>
+  </si>
+  <si>
+    <t>公克(g)</t>
+  </si>
+  <si>
+    <t>公噸(mt)</t>
+  </si>
+  <si>
+    <t>英磅(lb)</t>
+  </si>
+  <si>
+    <t>毫升(ml)</t>
+  </si>
+  <si>
+    <t>公秉(kl)</t>
+  </si>
+  <si>
+    <t>平方毫米(mm2)</t>
+  </si>
+  <si>
+    <t>平方公分(cm2)</t>
+  </si>
+  <si>
+    <t>平方公尺(m2)</t>
+  </si>
+  <si>
+    <t>平方公里(km2)</t>
+  </si>
+  <si>
+    <t>立方毫米(mm3)</t>
+  </si>
+  <si>
+    <t>立方公分(cm3)</t>
+  </si>
+  <si>
+    <t>立方公里(km3)</t>
+  </si>
+  <si>
+    <t>百萬焦耳(MJ)</t>
+  </si>
+  <si>
+    <t>延人公里(pkm)</t>
+  </si>
+  <si>
+    <t>延噸公里(tkm)</t>
+  </si>
+  <si>
+    <t>g CO2e</t>
+  </si>
+  <si>
+    <t>kg CO2e</t>
+  </si>
+  <si>
+    <t>每平方米‧每小時</t>
+  </si>
+  <si>
+    <t>每人‧每小時</t>
+  </si>
+  <si>
+    <t>每人</t>
+  </si>
+  <si>
+    <t>每人次</t>
+  </si>
+  <si>
+    <t>每房-每天</t>
+  </si>
+  <si>
+    <t>片</t>
   </si>
   <si>
     <t>顆</t>
-  </si>
-  <si>
-    <t>麗園農牧科技股份有限公司,2017</t>
-  </si>
-  <si>
-    <t>芝麻醬</t>
-  </si>
-  <si>
-    <t>社團法人臺灣環境管理協會,2019</t>
-  </si>
-  <si>
-    <t>精製牛油</t>
-  </si>
-  <si>
-    <t>衛生福利部食品藥物管理署、統清股份有限公司台南廠,2018</t>
-  </si>
-  <si>
-    <t>豬肉</t>
-  </si>
-  <si>
-    <t>祥圃實業股份有限公司,2017</t>
-  </si>
-  <si>
-    <t>牛皮紙</t>
-  </si>
-  <si>
-    <t>環境部,2023</t>
-  </si>
-  <si>
-    <t>製造生產階段</t>
-  </si>
-  <si>
-    <t>能源</t>
-  </si>
-  <si>
-    <t>電力碳足跡(2021)</t>
-  </si>
-  <si>
-    <t>度(kwh)</t>
-  </si>
-  <si>
-    <t>天然氣(於固定源使用，2021)</t>
-  </si>
-  <si>
-    <t>立方公尺(m3)</t>
-  </si>
-  <si>
-    <t>柴油(於固定源使用，2021)</t>
-  </si>
-  <si>
-    <t>公升(L)</t>
-  </si>
-  <si>
-    <t>配銷階段</t>
-  </si>
-  <si>
-    <t>車用汽油(於移動源使用，2021)</t>
-  </si>
-  <si>
-    <t>柴油(於公路運輸移動源使用，2021)</t>
-  </si>
-  <si>
-    <t>毫米(mm)</t>
-  </si>
-  <si>
-    <t>資源</t>
-  </si>
-  <si>
-    <t>公分(cm)</t>
-  </si>
-  <si>
-    <t>公尺(m)</t>
-  </si>
-  <si>
-    <t>使用階段</t>
-  </si>
-  <si>
-    <t>輔助項</t>
-  </si>
-  <si>
-    <t>公里(km)</t>
-  </si>
-  <si>
-    <t>廢棄處理階段</t>
-  </si>
-  <si>
-    <t>產品</t>
-  </si>
-  <si>
-    <t>海浬(nm)</t>
-  </si>
-  <si>
-    <t>服務階段</t>
-  </si>
-  <si>
-    <t>聯產品</t>
-  </si>
-  <si>
-    <t>英寸(in)</t>
-  </si>
-  <si>
-    <t>排放</t>
-  </si>
-  <si>
-    <t>碼(yard)</t>
-  </si>
-  <si>
-    <t>殘留物</t>
-  </si>
-  <si>
-    <t>毫克(mg)</t>
-  </si>
-  <si>
-    <t>公克(g)</t>
-  </si>
-  <si>
-    <t>公噸(mt)</t>
-  </si>
-  <si>
-    <t>英磅(lb)</t>
-  </si>
-  <si>
-    <t>毫升(ml)</t>
-  </si>
-  <si>
-    <t>公秉(kl)</t>
-  </si>
-  <si>
-    <t>平方毫米(mm2)</t>
-  </si>
-  <si>
-    <t>平方公分(cm2)</t>
-  </si>
-  <si>
-    <t>平方公尺(m2)</t>
-  </si>
-  <si>
-    <t>平方公里(km2)</t>
-  </si>
-  <si>
-    <t>立方毫米(mm3)</t>
-  </si>
-  <si>
-    <t>立方公分(cm3)</t>
-  </si>
-  <si>
-    <t>立方公里(km3)</t>
-  </si>
-  <si>
-    <t>百萬焦耳(MJ)</t>
-  </si>
-  <si>
-    <t>延人公里(pkm)</t>
-  </si>
-  <si>
-    <t>延噸公里(tkm)</t>
-  </si>
-  <si>
-    <t>g CO2e</t>
-  </si>
-  <si>
-    <t>kg CO2e</t>
-  </si>
-  <si>
-    <t>每平方米‧每小時</t>
-  </si>
-  <si>
-    <t>每人‧每小時</t>
-  </si>
-  <si>
-    <t>每人</t>
-  </si>
-  <si>
-    <t>每人次</t>
-  </si>
-  <si>
-    <t>每房-每天</t>
-  </si>
-  <si>
-    <t>片</t>
   </si>
   <si>
     <t>個</t>
@@ -733,35 +691,20 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3">
         <v>60000</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>0.02</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>0.531</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -771,35 +714,20 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4">
         <v>6000</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0.002</v>
       </c>
       <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>57.7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -809,26 +737,20 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5">
         <v>60000</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0.02</v>
       </c>
       <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -838,29 +760,20 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6">
         <v>60000</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>0.02</v>
       </c>
       <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -870,35 +783,20 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7">
         <v>15000</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>0.005</v>
       </c>
       <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
         <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>0.107</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -908,35 +806,20 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8">
         <v>12000</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>0.004</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
         <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>1.96</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -946,35 +829,20 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9">
         <v>24000</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>0.008</v>
       </c>
       <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
         <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>0.694</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -984,35 +852,20 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
       <c r="D10">
         <v>15000</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>0.005</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
         <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10">
-        <v>36.9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1022,225 +875,210 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
       <c r="D11">
         <v>4500</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>0.0015</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11">
-        <v>1.22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>280000</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>0.0933</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>0.606</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>20000</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>6.66666667</v>
+        <v>6.67</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>2.63</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>8000</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>2.66666667</v>
+        <v>2.67</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>3.29</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>8000</v>
+        <v>250000</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>2.66666667</v>
+        <v>0.0117</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I15">
-        <v>2.92</v>
+        <v>3.32</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F16">
-        <v>0.01166</v>
+        <v>0.003</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>3.32</v>
+        <v>0.233</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1296,547 +1134,547 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J30" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J31" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Carbon_Footprint_Report.xlsx
+++ b/Carbon_Footprint_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
   <si>
     <t>活動數據</t>
   </si>
@@ -56,136 +56,145 @@
     <t>原物料</t>
   </si>
   <si>
+    <t>新增一列名稱</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
     <t>公斤(kg)</t>
   </si>
   <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>新增一列數據來源</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>新增第二列</t>
+  </si>
+  <si>
+    <t>公雞(kg)</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>新增第二列數據來源</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>毫米(mm)</t>
+  </si>
+  <si>
     <t>製造生產階段</t>
   </si>
   <si>
-    <t>能源</t>
-  </si>
-  <si>
-    <t>電力碳足跡(2021)</t>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>公分(cm)</t>
+  </si>
+  <si>
+    <t>配銷階段</t>
+  </si>
+  <si>
+    <t>公尺(m)</t>
+  </si>
+  <si>
+    <t>使用階段</t>
+  </si>
+  <si>
+    <t>輔助項</t>
+  </si>
+  <si>
+    <t>公里(km)</t>
+  </si>
+  <si>
+    <t>廢棄處理階段</t>
+  </si>
+  <si>
+    <t>產品</t>
+  </si>
+  <si>
+    <t>海浬(nm)</t>
+  </si>
+  <si>
+    <t>服務階段</t>
+  </si>
+  <si>
+    <t>聯產品</t>
+  </si>
+  <si>
+    <t>英寸(in)</t>
+  </si>
+  <si>
+    <t>排放</t>
+  </si>
+  <si>
+    <t>碼(yard)</t>
+  </si>
+  <si>
+    <t>殘留物</t>
+  </si>
+  <si>
+    <t>毫克(mg)</t>
+  </si>
+  <si>
+    <t>公克(g)</t>
+  </si>
+  <si>
+    <t>公噸(mt)</t>
+  </si>
+  <si>
+    <t>英磅(lb)</t>
+  </si>
+  <si>
+    <t>毫升(ml)</t>
+  </si>
+  <si>
+    <t>公升(L)</t>
+  </si>
+  <si>
+    <t>公秉(kl)</t>
+  </si>
+  <si>
+    <t>平方毫米(mm2)</t>
+  </si>
+  <si>
+    <t>平方公分(cm2)</t>
+  </si>
+  <si>
+    <t>平方公尺(m2)</t>
+  </si>
+  <si>
+    <t>平方公里(km2)</t>
+  </si>
+  <si>
+    <t>立方毫米(mm3)</t>
+  </si>
+  <si>
+    <t>立方公分(cm3)</t>
+  </si>
+  <si>
+    <t>立方公尺(m3)</t>
+  </si>
+  <si>
+    <t>立方公里(km3)</t>
+  </si>
+  <si>
+    <t>百萬焦耳(MJ)</t>
   </si>
   <si>
     <t>度(kwh)</t>
-  </si>
-  <si>
-    <t>環境部</t>
-  </si>
-  <si>
-    <t>天然氣(於固定源使用，2021)</t>
-  </si>
-  <si>
-    <t>立方公尺(m3)</t>
-  </si>
-  <si>
-    <t>柴油(於固定源使用，2021)</t>
-  </si>
-  <si>
-    <t>公升(L)</t>
-  </si>
-  <si>
-    <t>配銷階段</t>
-  </si>
-  <si>
-    <t>柴油(於公路運輸移動源使用，2021)</t>
-  </si>
-  <si>
-    <t>資源</t>
-  </si>
-  <si>
-    <t>臺灣自來水(2020)</t>
-  </si>
-  <si>
-    <t>毫米(mm)</t>
-  </si>
-  <si>
-    <t>公分(cm)</t>
-  </si>
-  <si>
-    <t>公尺(m)</t>
-  </si>
-  <si>
-    <t>使用階段</t>
-  </si>
-  <si>
-    <t>輔助項</t>
-  </si>
-  <si>
-    <t>公里(km)</t>
-  </si>
-  <si>
-    <t>廢棄處理階段</t>
-  </si>
-  <si>
-    <t>產品</t>
-  </si>
-  <si>
-    <t>海浬(nm)</t>
-  </si>
-  <si>
-    <t>服務階段</t>
-  </si>
-  <si>
-    <t>聯產品</t>
-  </si>
-  <si>
-    <t>英寸(in)</t>
-  </si>
-  <si>
-    <t>排放</t>
-  </si>
-  <si>
-    <t>碼(yard)</t>
-  </si>
-  <si>
-    <t>殘留物</t>
-  </si>
-  <si>
-    <t>毫克(mg)</t>
-  </si>
-  <si>
-    <t>公克(g)</t>
-  </si>
-  <si>
-    <t>公噸(mt)</t>
-  </si>
-  <si>
-    <t>英磅(lb)</t>
-  </si>
-  <si>
-    <t>毫升(ml)</t>
-  </si>
-  <si>
-    <t>公秉(kl)</t>
-  </si>
-  <si>
-    <t>平方毫米(mm2)</t>
-  </si>
-  <si>
-    <t>平方公分(cm2)</t>
-  </si>
-  <si>
-    <t>平方公尺(m2)</t>
-  </si>
-  <si>
-    <t>平方公里(km2)</t>
-  </si>
-  <si>
-    <t>立方毫米(mm3)</t>
-  </si>
-  <si>
-    <t>立方公分(cm3)</t>
-  </si>
-  <si>
-    <t>立方公里(km3)</t>
-  </si>
-  <si>
-    <t>百萬焦耳(MJ)</t>
   </si>
   <si>
     <t>延人公里(pkm)</t>
@@ -625,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -691,20 +700,35 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>60000</v>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -714,371 +738,35 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>6000</v>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>0.002</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>60000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>0.02</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>60000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>0.02</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>15000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>0.005</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>12000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>0.004</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>24000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>0.008</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>15000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>0.005</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>4500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>0.0015</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>280000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>0.0933</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <v>0.606</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" t="s">
         <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>20000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>6.67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13">
-        <v>2.63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>8000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14">
-        <v>2.67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14">
-        <v>3.29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>250000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>0.0117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15">
-        <v>3.32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>9000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16">
-        <v>0.003</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16">
-        <v>0.233</v>
-      </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1087,35 +775,20 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" sqref="A10:A16">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" sqref="A3:A4">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A3:A16">
-      <formula1>Code!$A$1:$A$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B10:B16">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B4">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B16">
-      <formula1>Code!$C$1:$C$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E10:E16">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E4">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E16">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G4">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G10:G16">
-      <formula1>Code!$G$1:$G$46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G16">
-      <formula1>Code!$G$1:$G$46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J10:J16">
-      <formula1>Code!$G$1:$G$46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J3:J16">
+    <dataValidation type="list" allowBlank="1" sqref="J3:J4">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
   </dataValidations>
@@ -1134,38 +807,38 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1272,13 +945,13 @@
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
@@ -1316,365 +989,365 @@
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Carbon_Footprint_Report.xlsx
+++ b/Carbon_Footprint_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="105">
   <si>
     <t>活動數據</t>
   </si>
@@ -56,57 +56,138 @@
     <t>原物料</t>
   </si>
   <si>
-    <t>新增一列名稱</t>
+    <t>麵粉</t>
+  </si>
+  <si>
+    <t>公斤(kg)</t>
+  </si>
+  <si>
+    <t>衛生福利部食品藥物管理署,2016</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>精製特砂(50公斤)</t>
+  </si>
+  <si>
+    <t>台灣糖業公司,2014</t>
+  </si>
+  <si>
+    <t>步驟二名稱三</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>步驟二填寫</t>
+  </si>
+  <si>
+    <t>步驟二名稱四</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>鮮蛋</t>
+  </si>
+  <si>
+    <t>顆</t>
+  </si>
+  <si>
+    <t>石安牧場,2015</t>
+  </si>
+  <si>
+    <t>芝麻油</t>
+  </si>
+  <si>
+    <t>衛生福利部食品藥物管理署,2015</t>
+  </si>
+  <si>
+    <t>精緻牛油</t>
+  </si>
+  <si>
+    <t>衛生福利部食品藥物管理署、統清股份有限公司台南廠,2018</t>
+  </si>
+  <si>
+    <t>豬肉</t>
+  </si>
+  <si>
+    <t>祥圃實業股份有限公司,2017</t>
+  </si>
+  <si>
+    <t>牛皮紙</t>
+  </si>
+  <si>
+    <t>經濟部工業局,2013</t>
+  </si>
+  <si>
+    <t>製造生產階段</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>電力碳足跡(2014)</t>
+  </si>
+  <si>
+    <t>度(kwh)</t>
+  </si>
+  <si>
+    <t>環境部,2016</t>
+  </si>
+  <si>
+    <t>天然氣(於固定源使用，2013)</t>
+  </si>
+  <si>
+    <t>立方公尺(m3)</t>
+  </si>
+  <si>
+    <t>環境部,2015</t>
+  </si>
+  <si>
+    <t>柴油(於固定源使用，2013)</t>
+  </si>
+  <si>
+    <t>公升(L)</t>
+  </si>
+  <si>
+    <t>配銷階段</t>
+  </si>
+  <si>
+    <t>柴油(於公路運輸移動源使用，2013)</t>
+  </si>
+  <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>台灣自來水(2011)</t>
+  </si>
+  <si>
+    <t>台灣自來水公司,2013</t>
+  </si>
+  <si>
+    <t>步驟三名稱</t>
   </si>
   <si>
     <t>6000</t>
   </si>
   <si>
-    <t>公斤(kg)</t>
-  </si>
-  <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>新增一列數據來源</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>新增第二列</t>
-  </si>
-  <si>
-    <t>公雞(kg)</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>新增第二列數據來源</t>
-  </si>
-  <si>
-    <t>能源</t>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>步驟三填寫</t>
   </si>
   <si>
     <t>毫米(mm)</t>
   </si>
   <si>
-    <t>製造生產階段</t>
-  </si>
-  <si>
-    <t>資源</t>
-  </si>
-  <si>
     <t>公分(cm)</t>
   </si>
   <si>
-    <t>配銷階段</t>
-  </si>
-  <si>
     <t>公尺(m)</t>
   </si>
   <si>
@@ -161,9 +242,6 @@
     <t>毫升(ml)</t>
   </si>
   <si>
-    <t>公升(L)</t>
-  </si>
-  <si>
     <t>公秉(kl)</t>
   </si>
   <si>
@@ -185,18 +263,12 @@
     <t>立方公分(cm3)</t>
   </si>
   <si>
-    <t>立方公尺(m3)</t>
-  </si>
-  <si>
     <t>立方公里(km3)</t>
   </si>
   <si>
     <t>百萬焦耳(MJ)</t>
   </si>
   <si>
-    <t>度(kwh)</t>
-  </si>
-  <si>
     <t>延人公里(pkm)</t>
   </si>
   <si>
@@ -225,9 +297,6 @@
   </si>
   <si>
     <t>片</t>
-  </si>
-  <si>
-    <t>顆</t>
   </si>
   <si>
     <t>個</t>
@@ -634,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -703,32 +772,32 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3">
+        <v>60000</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
+      <c r="I3">
+        <v>0.531</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -739,34 +808,566 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>6000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0.002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>29.6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>60000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="D6">
+        <v>60000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>15000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0.005</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>0.28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>12000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0.004</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>614.64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>24000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>0.008</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>0.694</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>15000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>0.005</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>36.9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>4500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>0.0015</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11">
+        <v>1.08</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>280000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>0.0933</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>0.65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>20000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>6.67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>2.59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>8000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>2.67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>3.46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>250000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>0.01166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>3.49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>9000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>0.003</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16">
+        <v>0.167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -775,20 +1376,35 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" sqref="A3:A4">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" sqref="A10:A18">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B4">
+    <dataValidation type="list" allowBlank="1" sqref="A3:A18">
+      <formula1>Code!$A$1:$A$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="B10:B18">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E4">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B18">
+      <formula1>Code!$C$1:$C$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E10:E18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G4">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J3:J4">
+    <dataValidation type="list" allowBlank="1" sqref="G10:G18">
+      <formula1>Code!$G$1:$G$46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G3:G18">
+      <formula1>Code!$G$1:$G$46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J10:J18">
+      <formula1>Code!$G$1:$G$46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J3:J18">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
   </dataValidations>
@@ -807,547 +1423,547 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="J40" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="J41" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="J42" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="J44" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Carbon_Footprint_Report.xlsx
+++ b/Carbon_Footprint_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="91">
   <si>
     <t>活動數據</t>
   </si>
@@ -62,31 +62,19 @@
     <t>公斤(kg)</t>
   </si>
   <si>
-    <t>衛生福利部食品藥物管理署,2016</t>
+    <t>衛生福利部食品藥物管理署</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>精製特砂(50公斤)</t>
-  </si>
-  <si>
-    <t>台灣糖業公司,2014</t>
-  </si>
-  <si>
-    <t>步驟二名稱三</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>步驟二填寫</t>
-  </si>
-  <si>
-    <t>步驟二名稱四</t>
-  </si>
-  <si>
-    <t>0.234</t>
+    <t>蔗糖</t>
+  </si>
+  <si>
+    <t>環境部</t>
+  </si>
+  <si>
+    <t>第三列名稱手動填寫</t>
   </si>
   <si>
     <t>鮮蛋</t>
@@ -95,31 +83,25 @@
     <t>顆</t>
   </si>
   <si>
-    <t>石安牧場,2015</t>
-  </si>
-  <si>
-    <t>芝麻油</t>
-  </si>
-  <si>
-    <t>衛生福利部食品藥物管理署,2015</t>
+    <t>石安牧場</t>
+  </si>
+  <si>
+    <t>芝麻醬</t>
+  </si>
+  <si>
+    <t>社團法人臺灣環境管理協會</t>
   </si>
   <si>
     <t>精緻牛油</t>
   </si>
   <si>
-    <t>衛生福利部食品藥物管理署、統清股份有限公司台南廠,2018</t>
-  </si>
-  <si>
     <t>豬肉</t>
   </si>
   <si>
-    <t>祥圃實業股份有限公司,2017</t>
-  </si>
-  <si>
-    <t>牛皮紙</t>
-  </si>
-  <si>
-    <t>經濟部工業局,2013</t>
+    <t>祥圃實業股份有限公司</t>
+  </si>
+  <si>
+    <t>道林紙</t>
   </si>
   <si>
     <t>製造生產階段</t>
@@ -128,58 +110,34 @@
     <t>能源</t>
   </si>
   <si>
-    <t>電力碳足跡(2014)</t>
+    <t>電力碳足跡(2019)</t>
   </si>
   <si>
     <t>度(kwh)</t>
   </si>
   <si>
-    <t>環境部,2016</t>
-  </si>
-  <si>
-    <t>天然氣(於固定源使用，2013)</t>
+    <t>天然氣(於固定源使用，2019)</t>
   </si>
   <si>
     <t>立方公尺(m3)</t>
   </si>
   <si>
-    <t>環境部,2015</t>
-  </si>
-  <si>
-    <t>柴油(於固定源使用，2013)</t>
+    <t>柴油(於固定源使用，2019)</t>
   </si>
   <si>
     <t>公升(L)</t>
   </si>
   <si>
+    <t>資源</t>
+  </si>
+  <si>
+    <t>臺灣自來水(2017)</t>
+  </si>
+  <si>
     <t>配銷階段</t>
   </si>
   <si>
-    <t>柴油(於公路運輸移動源使用，2013)</t>
-  </si>
-  <si>
-    <t>資源</t>
-  </si>
-  <si>
-    <t>台灣自來水(2011)</t>
-  </si>
-  <si>
-    <t>台灣自來水公司,2013</t>
-  </si>
-  <si>
-    <t>步驟三名稱</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>步驟三填寫</t>
+    <t>柴油(於公路運輸移動源使用，2019)</t>
   </si>
   <si>
     <t>毫米(mm)</t>
@@ -703,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -826,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="I4">
-        <v>29.6</v>
+        <v>0.37</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -863,15 +821,6 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
@@ -884,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>60000</v>
@@ -899,16 +848,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -922,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>15000</v>
@@ -937,16 +877,16 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>0.28</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -960,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>12000</v>
@@ -975,16 +915,16 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I8">
-        <v>614.64</v>
+        <v>1.96</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -998,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>24000</v>
@@ -1013,7 +953,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>0.694</v>
@@ -1022,7 +962,7 @@
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -1036,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>15000</v>
@@ -1051,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I10">
         <v>36.9</v>
@@ -1060,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1074,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>4500</v>
@@ -1089,16 +1029,16 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1106,37 +1046,37 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>280000</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>0.0933</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I12">
-        <v>0.65</v>
+        <v>0.601</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1144,37 +1084,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>20000</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>6.67</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I13">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1182,37 +1122,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14">
         <v>8000</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>2.67</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I14">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1220,37 +1160,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>250000</v>
+        <v>1260</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>0.01166</v>
+        <v>0.00042</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I15">
-        <v>3.49</v>
+        <v>0.299</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1258,37 +1198,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>9000</v>
+        <v>350000</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.003</v>
+        <v>0.1167</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I16">
-        <v>0.167</v>
+        <v>3.38</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1296,77 +1236,39 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1377,34 +1279,34 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" sqref="A10:A18">
+    <dataValidation type="list" allowBlank="1" sqref="A10:A17">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A3:A18">
+    <dataValidation type="list" allowBlank="1" sqref="A3:A17">
       <formula1>Code!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B10:B18">
+    <dataValidation type="list" allowBlank="1" sqref="B10:B17">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B18">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B17">
       <formula1>Code!$C$1:$C$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E10:E18">
+    <dataValidation type="list" allowBlank="1" sqref="E10:E17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E18">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G10:G18">
+    <dataValidation type="list" allowBlank="1" sqref="G10:G17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G18">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J10:J18">
+    <dataValidation type="list" allowBlank="1" sqref="J10:J17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J3:J18">
+    <dataValidation type="list" allowBlank="1" sqref="J3:J17">
       <formula1>Code!$G$1:$G$46</formula1>
     </dataValidation>
   </dataValidations>
@@ -1423,140 +1325,140 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="5:10" x14ac:dyDescent="0.25">
@@ -1572,398 +1474,398 @@
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
